--- a/dataanalysis/data/predictions/1600/08041505_1634.xlsx
+++ b/dataanalysis/data/predictions/1600/08041505_1634.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="148">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-04</t>
   </si>
   <si>
@@ -455,12 +458,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -818,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH69"/>
+  <dimension ref="A1:AI69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,19 +924,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>4.67</v>
@@ -957,7 +957,7 @@
         <v>57412.32</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K2">
         <v>15</v>
@@ -998,8 +998,23 @@
       <c r="W2">
         <v>0.61</v>
       </c>
+      <c r="X2">
+        <v>-0.36</v>
+      </c>
+      <c r="Y2">
+        <v>6.14</v>
+      </c>
+      <c r="Z2">
+        <v>9.640000000000001</v>
+      </c>
       <c r="AC2" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1007,22 +1022,25 @@
       <c r="AG2">
         <v>1.309051394462585</v>
       </c>
-      <c r="AH2" t="s">
-        <v>147</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-1.01</v>
@@ -1040,7 +1058,7 @@
         <v>221239.24</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1081,8 +1099,23 @@
       <c r="W3">
         <v>-1.25</v>
       </c>
+      <c r="X3">
+        <v>-2.12</v>
+      </c>
+      <c r="Y3">
+        <v>11.99</v>
+      </c>
+      <c r="Z3">
+        <v>1.78</v>
+      </c>
       <c r="AC3" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1090,22 +1123,25 @@
       <c r="AG3">
         <v>4.9314284324646</v>
       </c>
-      <c r="AH3" t="s">
-        <v>147</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300030</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>4.55</v>
@@ -1123,7 +1159,7 @@
         <v>39449.31</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1164,8 +1200,23 @@
       <c r="W4">
         <v>0.08</v>
       </c>
+      <c r="X4">
+        <v>-1.11</v>
+      </c>
+      <c r="Y4">
+        <v>8.99</v>
+      </c>
+      <c r="Z4">
+        <v>0.22</v>
+      </c>
       <c r="AC4" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1173,22 +1224,25 @@
       <c r="AG4">
         <v>5.780163288116455</v>
       </c>
-      <c r="AH4" t="s">
-        <v>147</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300158</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.61</v>
@@ -1206,7 +1260,7 @@
         <v>142412.62</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1247,8 +1301,23 @@
       <c r="W5">
         <v>-0.67</v>
       </c>
+      <c r="X5">
+        <v>-1.59</v>
+      </c>
+      <c r="Y5">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>8.289999999999999</v>
+      </c>
       <c r="AC5" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1256,22 +1325,25 @@
       <c r="AG5">
         <v>4.71487283706665</v>
       </c>
-      <c r="AH5" t="s">
-        <v>147</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300199</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>19.98</v>
@@ -1289,7 +1361,7 @@
         <v>468605.18</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1330,8 +1402,23 @@
       <c r="W6">
         <v>2.87</v>
       </c>
+      <c r="X6">
+        <v>5.63</v>
+      </c>
+      <c r="Y6">
+        <v>27.67</v>
+      </c>
+      <c r="Z6">
+        <v>13.77</v>
+      </c>
       <c r="AC6" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1339,22 +1426,25 @@
       <c r="AG6">
         <v>6.552891254425049</v>
       </c>
-      <c r="AH6" t="s">
-        <v>147</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300261</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-2.66</v>
@@ -1372,7 +1462,7 @@
         <v>63136.04</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -1413,8 +1503,23 @@
       <c r="W7">
         <v>-0.8</v>
       </c>
+      <c r="X7">
+        <v>-2.02</v>
+      </c>
+      <c r="Y7">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.59</v>
+      </c>
       <c r="AC7" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1422,22 +1527,25 @@
       <c r="AG7">
         <v>0.3245127201080322</v>
       </c>
-      <c r="AH7" t="s">
-        <v>147</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300267</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.18</v>
@@ -1455,7 +1563,7 @@
         <v>71783.73</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1496,8 +1604,23 @@
       <c r="W8">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X8">
+        <v>-2.56</v>
+      </c>
+      <c r="Y8">
+        <v>4.32</v>
+      </c>
+      <c r="Z8">
+        <v>0.7</v>
+      </c>
       <c r="AC8" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1505,22 +1628,25 @@
       <c r="AG8">
         <v>4.395074844360352</v>
       </c>
-      <c r="AH8" t="s">
-        <v>147</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300289</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -1538,7 +1664,7 @@
         <v>158817.33</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1579,8 +1705,23 @@
       <c r="W9">
         <v>-3.44</v>
       </c>
+      <c r="X9">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>10.88</v>
+      </c>
+      <c r="Z9">
+        <v>7.3</v>
+      </c>
       <c r="AC9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1588,22 +1729,25 @@
       <c r="AG9">
         <v>14.8027811050415</v>
       </c>
-      <c r="AH9" t="s">
-        <v>147</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300322</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.09</v>
@@ -1621,7 +1765,7 @@
         <v>173857.28</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1662,8 +1806,23 @@
       <c r="W10">
         <v>0.27</v>
       </c>
+      <c r="X10">
+        <v>6.45</v>
+      </c>
+      <c r="Y10">
+        <v>21.18</v>
+      </c>
+      <c r="Z10">
+        <v>9.23</v>
+      </c>
       <c r="AC10" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1671,22 +1830,25 @@
       <c r="AG10">
         <v>5.833683967590332</v>
       </c>
-      <c r="AH10" t="s">
-        <v>147</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300378</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6.61</v>
@@ -1704,7 +1866,7 @@
         <v>340640.84</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1745,8 +1907,23 @@
       <c r="W11">
         <v>-0.6</v>
       </c>
+      <c r="X11">
+        <v>-4.88</v>
+      </c>
+      <c r="Y11">
+        <v>62.98</v>
+      </c>
+      <c r="Z11">
+        <v>-3.14</v>
+      </c>
       <c r="AC11" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1754,22 +1931,25 @@
       <c r="AG11">
         <v>4.540934562683105</v>
       </c>
-      <c r="AH11" t="s">
-        <v>147</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300394</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-3.17</v>
@@ -1787,7 +1967,7 @@
         <v>387878.45</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1828,8 +2008,23 @@
       <c r="W12">
         <v>-0.11</v>
       </c>
+      <c r="X12">
+        <v>-1.21</v>
+      </c>
+      <c r="Y12">
+        <v>106.99</v>
+      </c>
+      <c r="Z12">
+        <v>2.42</v>
+      </c>
       <c r="AC12" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1837,22 +2032,25 @@
       <c r="AG12">
         <v>3.673243761062622</v>
       </c>
-      <c r="AH12" t="s">
-        <v>147</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300436</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>18.18</v>
@@ -1870,7 +2068,7 @@
         <v>207292.21</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>23</v>
@@ -1911,8 +2109,23 @@
       <c r="W13">
         <v>0.2</v>
       </c>
+      <c r="X13">
+        <v>2.19</v>
+      </c>
+      <c r="Y13">
+        <v>124.5</v>
+      </c>
+      <c r="Z13">
+        <v>2.98</v>
+      </c>
       <c r="AC13" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -1920,22 +2133,25 @@
       <c r="AG13">
         <v>6.383785247802734</v>
       </c>
-      <c r="AH13" t="s">
-        <v>147</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300486</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>19.99</v>
@@ -1953,7 +2169,7 @@
         <v>80320.22</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1994,8 +2210,23 @@
       <c r="W14">
         <v>0.68</v>
       </c>
+      <c r="X14">
+        <v>20.01</v>
+      </c>
+      <c r="Y14">
+        <v>20.39</v>
+      </c>
+      <c r="Z14">
+        <v>20.01</v>
+      </c>
       <c r="AC14" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -2003,22 +2234,25 @@
       <c r="AG14">
         <v>8.21940803527832</v>
       </c>
-      <c r="AH14" t="s">
-        <v>148</v>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300500</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-3.17</v>
@@ -2036,7 +2270,7 @@
         <v>56139.38</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2077,8 +2311,23 @@
       <c r="W15">
         <v>-0.75</v>
       </c>
+      <c r="X15">
+        <v>2.89</v>
+      </c>
+      <c r="Y15">
+        <v>16.21</v>
+      </c>
+      <c r="Z15">
+        <v>4.11</v>
+      </c>
       <c r="AC15" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2086,22 +2335,25 @@
       <c r="AG15">
         <v>0.6754521727561951</v>
       </c>
-      <c r="AH15" t="s">
-        <v>147</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300505</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1.3</v>
@@ -2119,7 +2371,7 @@
         <v>62926.14</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2160,8 +2412,23 @@
       <c r="W16">
         <v>0.77</v>
       </c>
+      <c r="X16">
+        <v>-0.73</v>
+      </c>
+      <c r="Y16">
+        <v>22.3</v>
+      </c>
+      <c r="Z16">
+        <v>1.92</v>
+      </c>
       <c r="AC16" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2169,22 +2436,25 @@
       <c r="AG16">
         <v>7.008832931518555</v>
       </c>
-      <c r="AH16" t="s">
-        <v>147</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300534</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>7.18</v>
@@ -2202,7 +2472,7 @@
         <v>77704.66</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2243,8 +2513,23 @@
       <c r="W17">
         <v>0.73</v>
       </c>
+      <c r="X17">
+        <v>-3.06</v>
+      </c>
+      <c r="Y17">
+        <v>12.22</v>
+      </c>
+      <c r="Z17">
+        <v>1.08</v>
+      </c>
       <c r="AC17" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2252,22 +2537,25 @@
       <c r="AG17">
         <v>4.842212200164795</v>
       </c>
-      <c r="AH17" t="s">
-        <v>147</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300588</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-1.34</v>
@@ -2285,7 +2573,7 @@
         <v>32952.72</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2326,8 +2614,23 @@
       <c r="W18">
         <v>-0.41</v>
       </c>
+      <c r="X18">
+        <v>0.47</v>
+      </c>
+      <c r="Y18">
+        <v>20.19</v>
+      </c>
+      <c r="Z18">
+        <v>5.6</v>
+      </c>
       <c r="AC18" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2335,22 +2638,25 @@
       <c r="AG18">
         <v>1.643755793571472</v>
       </c>
-      <c r="AH18" t="s">
-        <v>147</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300591</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>12.4</v>
@@ -2368,7 +2674,7 @@
         <v>181405.94</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2409,8 +2715,23 @@
       <c r="W19">
         <v>2.92</v>
       </c>
+      <c r="X19">
+        <v>-0.63</v>
+      </c>
+      <c r="Y19">
+        <v>13.06</v>
+      </c>
+      <c r="Z19">
+        <v>3.65</v>
+      </c>
       <c r="AC19" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2418,22 +2739,25 @@
       <c r="AG19">
         <v>3.049010038375854</v>
       </c>
-      <c r="AH19" t="s">
-        <v>147</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300600</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>7.36</v>
@@ -2451,7 +2775,7 @@
         <v>80860.47</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2492,8 +2816,23 @@
       <c r="W20">
         <v>1.44</v>
       </c>
+      <c r="X20">
+        <v>-1.43</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20">
+        <v>2.86</v>
+      </c>
       <c r="AC20" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2501,22 +2840,25 @@
       <c r="AG20">
         <v>4.56474494934082</v>
       </c>
-      <c r="AH20" t="s">
-        <v>147</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300609</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>10.89</v>
@@ -2534,7 +2876,7 @@
         <v>68971.53</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2575,8 +2917,23 @@
       <c r="W21">
         <v>0.12</v>
       </c>
+      <c r="X21">
+        <v>1.84</v>
+      </c>
+      <c r="Y21">
+        <v>49.8</v>
+      </c>
+      <c r="Z21">
+        <v>6.8</v>
+      </c>
       <c r="AC21" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2584,22 +2941,25 @@
       <c r="AG21">
         <v>9.606425285339355</v>
       </c>
-      <c r="AH21" t="s">
-        <v>147</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300648</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>14.9</v>
@@ -2617,7 +2977,7 @@
         <v>71250.74000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2658,8 +3018,23 @@
       <c r="W22">
         <v>0.26</v>
       </c>
+      <c r="X22">
+        <v>2.06</v>
+      </c>
+      <c r="Y22">
+        <v>51.03</v>
+      </c>
+      <c r="Z22">
+        <v>2.26</v>
+      </c>
       <c r="AC22" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2667,22 +3042,25 @@
       <c r="AG22">
         <v>0.1422663182020187</v>
       </c>
-      <c r="AH22" t="s">
-        <v>147</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300683</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.37</v>
@@ -2700,7 +3078,7 @@
         <v>78595.39</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23">
         <v>11</v>
@@ -2741,8 +3119,23 @@
       <c r="W23">
         <v>0.21</v>
       </c>
+      <c r="X23">
+        <v>-7.57</v>
+      </c>
+      <c r="Y23">
+        <v>59.87</v>
+      </c>
+      <c r="Z23">
+        <v>2.96</v>
+      </c>
       <c r="AC23" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2750,22 +3143,25 @@
       <c r="AG23">
         <v>4.293944835662842</v>
       </c>
-      <c r="AH23" t="s">
-        <v>147</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300696</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -2783,7 +3179,7 @@
         <v>104825.45</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2824,8 +3220,23 @@
       <c r="W24">
         <v>4.81</v>
       </c>
+      <c r="X24">
+        <v>6.81</v>
+      </c>
+      <c r="Y24">
+        <v>35.01</v>
+      </c>
+      <c r="Z24">
+        <v>16.24</v>
+      </c>
       <c r="AC24" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2833,22 +3244,25 @@
       <c r="AG24">
         <v>4.180185794830322</v>
       </c>
-      <c r="AH24" t="s">
-        <v>147</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300706</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.53</v>
@@ -2866,7 +3280,7 @@
         <v>79230.75</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2907,8 +3321,23 @@
       <c r="W25">
         <v>0.37</v>
       </c>
+      <c r="X25">
+        <v>10.2</v>
+      </c>
+      <c r="Y25">
+        <v>40.9</v>
+      </c>
+      <c r="Z25">
+        <v>17.19</v>
+      </c>
       <c r="AC25" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2916,22 +3345,25 @@
       <c r="AG25">
         <v>5.819509506225586</v>
       </c>
-      <c r="AH25" t="s">
-        <v>147</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300731</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>12.95</v>
@@ -2949,7 +3381,7 @@
         <v>87706.39</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2990,8 +3422,23 @@
       <c r="W26">
         <v>0.17</v>
       </c>
+      <c r="X26">
+        <v>6.42</v>
+      </c>
+      <c r="Y26">
+        <v>40.17</v>
+      </c>
+      <c r="Z26">
+        <v>8.859999999999999</v>
+      </c>
       <c r="AC26" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2999,22 +3446,25 @@
       <c r="AG26">
         <v>2.321479797363281</v>
       </c>
-      <c r="AH26" t="s">
-        <v>147</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300732</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-3.7</v>
@@ -3032,7 +3482,7 @@
         <v>57581.36</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3073,8 +3523,23 @@
       <c r="W27">
         <v>-0.82</v>
       </c>
+      <c r="X27">
+        <v>11.35</v>
+      </c>
+      <c r="Y27">
+        <v>11.74</v>
+      </c>
+      <c r="Z27">
+        <v>12.88</v>
+      </c>
       <c r="AC27" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3082,22 +3547,25 @@
       <c r="AG27">
         <v>2.184081315994263</v>
       </c>
-      <c r="AH27" t="s">
-        <v>147</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300733</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>8.470000000000001</v>
@@ -3115,7 +3583,7 @@
         <v>102932.68</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3156,8 +3624,23 @@
       <c r="W28">
         <v>-0.54</v>
       </c>
+      <c r="X28">
+        <v>2.75</v>
+      </c>
+      <c r="Y28">
+        <v>24.88</v>
+      </c>
+      <c r="Z28">
+        <v>6.78</v>
+      </c>
       <c r="AC28" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3165,22 +3648,25 @@
       <c r="AG28">
         <v>3.969783067703247</v>
       </c>
-      <c r="AH28" t="s">
-        <v>147</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300747</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>5.55</v>
@@ -3198,7 +3684,7 @@
         <v>143635.69</v>
       </c>
       <c r="J29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K29">
         <v>13</v>
@@ -3239,8 +3725,23 @@
       <c r="W29">
         <v>0.78</v>
       </c>
+      <c r="X29">
+        <v>-4.24</v>
+      </c>
+      <c r="Y29">
+        <v>31.66</v>
+      </c>
+      <c r="Z29">
+        <v>0.89</v>
+      </c>
       <c r="AC29" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3248,22 +3749,25 @@
       <c r="AG29">
         <v>1.048468470573425</v>
       </c>
-      <c r="AH29" t="s">
-        <v>147</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300830</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>19.96</v>
@@ -3281,7 +3785,7 @@
         <v>135499.94</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3322,8 +3826,23 @@
       <c r="W30">
         <v>4.55</v>
       </c>
+      <c r="X30">
+        <v>-6.04</v>
+      </c>
+      <c r="Y30">
+        <v>13.27</v>
+      </c>
+      <c r="Z30">
+        <v>-2.28</v>
+      </c>
       <c r="AC30" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3331,22 +3850,25 @@
       <c r="AG30">
         <v>6.958824634552002</v>
       </c>
-      <c r="AH30" t="s">
-        <v>148</v>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300841</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-2.67</v>
@@ -3364,7 +3886,7 @@
         <v>56880.1</v>
       </c>
       <c r="J31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3405,8 +3927,23 @@
       <c r="W31">
         <v>-0.38</v>
       </c>
+      <c r="X31">
+        <v>1.05</v>
+      </c>
+      <c r="Y31">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="Z31">
+        <v>2.21</v>
+      </c>
       <c r="AC31" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3414,22 +3951,25 @@
       <c r="AG31">
         <v>3.616812229156494</v>
       </c>
-      <c r="AH31" t="s">
-        <v>147</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300858</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>11.08</v>
@@ -3447,7 +3987,7 @@
         <v>86966.57000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3488,8 +4028,23 @@
       <c r="W32">
         <v>0.78</v>
       </c>
+      <c r="X32">
+        <v>-10.28</v>
+      </c>
+      <c r="Y32">
+        <v>23.76</v>
+      </c>
+      <c r="Z32">
+        <v>4.85</v>
+      </c>
       <c r="AC32" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3497,22 +4052,25 @@
       <c r="AG32">
         <v>1.613486647605896</v>
       </c>
-      <c r="AH32" t="s">
-        <v>147</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300869</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>3.74</v>
@@ -3530,7 +4088,7 @@
         <v>48761.62</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3571,8 +4129,23 @@
       <c r="W33">
         <v>0.36</v>
       </c>
+      <c r="X33">
+        <v>-5.01</v>
+      </c>
+      <c r="Y33">
+        <v>20.54</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
       <c r="AC33" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3580,22 +4153,25 @@
       <c r="AG33">
         <v>-1.314962267875671</v>
       </c>
-      <c r="AH33" t="s">
-        <v>147</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300877</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-2.82</v>
@@ -3613,7 +4189,7 @@
         <v>27378.84</v>
       </c>
       <c r="J34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K34">
         <v>7</v>
@@ -3654,8 +4230,23 @@
       <c r="W34">
         <v>-0.64</v>
       </c>
+      <c r="X34">
+        <v>-3.98</v>
+      </c>
+      <c r="Y34">
+        <v>29.77</v>
+      </c>
+      <c r="Z34">
+        <v>0.3</v>
+      </c>
       <c r="AC34" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3663,22 +4254,25 @@
       <c r="AG34">
         <v>4.677567005157471</v>
       </c>
-      <c r="AH34" t="s">
-        <v>147</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300878</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.4</v>
@@ -3696,7 +4290,7 @@
         <v>51257.94</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3737,8 +4331,23 @@
       <c r="W35">
         <v>-0.79</v>
       </c>
+      <c r="X35">
+        <v>-7.78</v>
+      </c>
+      <c r="Y35">
+        <v>27.86</v>
+      </c>
+      <c r="Z35">
+        <v>2.2</v>
+      </c>
       <c r="AC35" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3746,22 +4355,25 @@
       <c r="AG35">
         <v>2.204053401947021</v>
       </c>
-      <c r="AH35" t="s">
-        <v>147</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300885</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>9.220000000000001</v>
@@ -3779,7 +4391,7 @@
         <v>78193.42999999999</v>
       </c>
       <c r="J36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3820,8 +4432,23 @@
       <c r="W36">
         <v>0.95</v>
       </c>
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36">
+        <v>25.59</v>
+      </c>
+      <c r="Z36">
+        <v>6.94</v>
+      </c>
       <c r="AC36" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3829,22 +4456,25 @@
       <c r="AG36">
         <v>8.026767730712891</v>
       </c>
-      <c r="AH36" t="s">
-        <v>147</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300965</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>20</v>
@@ -3862,7 +4492,7 @@
         <v>52896.72</v>
       </c>
       <c r="J37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3903,8 +4533,23 @@
       <c r="W37">
         <v>4.18</v>
       </c>
+      <c r="X37">
+        <v>5.19</v>
+      </c>
+      <c r="Y37">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="Z37">
+        <v>15.64</v>
+      </c>
       <c r="AC37" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -3912,22 +4557,25 @@
       <c r="AG37">
         <v>16.36225128173828</v>
       </c>
-      <c r="AH37" t="s">
-        <v>148</v>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300966</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>6.18</v>
@@ -3945,7 +4593,7 @@
         <v>63493.82</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3986,8 +4634,23 @@
       <c r="W38">
         <v>1.08</v>
       </c>
+      <c r="X38">
+        <v>-5.22</v>
+      </c>
+      <c r="Y38">
+        <v>27.25</v>
+      </c>
+      <c r="Z38">
+        <v>-3.81</v>
+      </c>
       <c r="AC38" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3995,22 +4658,25 @@
       <c r="AG38">
         <v>-2.596776485443115</v>
       </c>
-      <c r="AH38" t="s">
-        <v>147</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301007</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.13</v>
@@ -4028,7 +4694,7 @@
         <v>42787.46</v>
       </c>
       <c r="J39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <v>7</v>
@@ -4069,8 +4735,23 @@
       <c r="W39">
         <v>0</v>
       </c>
+      <c r="X39">
+        <v>0.23</v>
+      </c>
+      <c r="Y39">
+        <v>39.77</v>
+      </c>
+      <c r="Z39">
+        <v>1.14</v>
+      </c>
       <c r="AC39" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4078,22 +4759,25 @@
       <c r="AG39">
         <v>3.050845384597778</v>
       </c>
-      <c r="AH39" t="s">
-        <v>147</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301038</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-3.8</v>
@@ -4111,7 +4795,7 @@
         <v>83740.32000000001</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -4152,8 +4836,23 @@
       <c r="W40">
         <v>-0.55</v>
       </c>
+      <c r="X40">
+        <v>6.29</v>
+      </c>
+      <c r="Y40">
+        <v>32.36</v>
+      </c>
+      <c r="Z40">
+        <v>6.62</v>
+      </c>
       <c r="AC40" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4161,22 +4860,25 @@
       <c r="AG40">
         <v>3.343248128890991</v>
       </c>
-      <c r="AH40" t="s">
-        <v>147</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301052</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>1.59</v>
@@ -4194,7 +4896,7 @@
         <v>53049</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4235,8 +4937,23 @@
       <c r="W41">
         <v>-0.27</v>
       </c>
+      <c r="X41">
+        <v>3.42</v>
+      </c>
+      <c r="Y41">
+        <v>68.48</v>
+      </c>
+      <c r="Z41">
+        <v>6.42</v>
+      </c>
       <c r="AC41" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4244,22 +4961,25 @@
       <c r="AG41">
         <v>3.3681960105896</v>
       </c>
-      <c r="AH41" t="s">
-        <v>147</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301150</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.78</v>
@@ -4277,7 +4997,7 @@
         <v>53534.04</v>
       </c>
       <c r="J42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K42">
         <v>7</v>
@@ -4318,8 +5038,23 @@
       <c r="W42">
         <v>0.46</v>
       </c>
+      <c r="X42">
+        <v>-2.75</v>
+      </c>
+      <c r="Y42">
+        <v>29.29</v>
+      </c>
+      <c r="Z42">
+        <v>0.76</v>
+      </c>
       <c r="AC42" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4327,22 +5062,25 @@
       <c r="AG42">
         <v>5.166712760925293</v>
       </c>
-      <c r="AH42" t="s">
-        <v>147</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301161</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>12.36</v>
@@ -4360,7 +5098,7 @@
         <v>73114.41</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4401,8 +5139,23 @@
       <c r="W43">
         <v>3.59</v>
       </c>
+      <c r="X43">
+        <v>4.42</v>
+      </c>
+      <c r="Y43">
+        <v>33.38</v>
+      </c>
+      <c r="Z43">
+        <v>7.02</v>
+      </c>
       <c r="AC43" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4410,22 +5163,25 @@
       <c r="AG43">
         <v>0.7260945439338684</v>
       </c>
-      <c r="AH43" t="s">
-        <v>147</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301200</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.83</v>
@@ -4443,7 +5199,7 @@
         <v>67875.92999999999</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4484,8 +5240,23 @@
       <c r="W44">
         <v>-0.23</v>
       </c>
+      <c r="X44">
+        <v>14.2</v>
+      </c>
+      <c r="Y44">
+        <v>84.87</v>
+      </c>
+      <c r="Z44">
+        <v>16.07</v>
+      </c>
       <c r="AC44" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4493,22 +5264,25 @@
       <c r="AG44">
         <v>2.92113184928894</v>
       </c>
-      <c r="AH44" t="s">
-        <v>147</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301213</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -4526,7 +5300,7 @@
         <v>67707.74000000001</v>
       </c>
       <c r="J45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4567,8 +5341,23 @@
       <c r="W45">
         <v>-1.13</v>
       </c>
+      <c r="X45">
+        <v>4.08</v>
+      </c>
+      <c r="Y45">
+        <v>80</v>
+      </c>
+      <c r="Z45">
+        <v>12.06</v>
+      </c>
       <c r="AC45" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4576,22 +5365,25 @@
       <c r="AG45">
         <v>5.813456058502197</v>
       </c>
-      <c r="AH45" t="s">
-        <v>147</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301285</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.45</v>
@@ -4609,7 +5401,7 @@
         <v>31907.37</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4650,8 +5442,23 @@
       <c r="W46">
         <v>-0.37</v>
       </c>
+      <c r="X46">
+        <v>3.95</v>
+      </c>
+      <c r="Y46">
+        <v>44.98</v>
+      </c>
+      <c r="Z46">
+        <v>7.66</v>
+      </c>
       <c r="AC46" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4659,22 +5466,25 @@
       <c r="AG46">
         <v>1.89841616153717</v>
       </c>
-      <c r="AH46" t="s">
-        <v>147</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301312</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.37</v>
@@ -4692,7 +5502,7 @@
         <v>30886.62</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4733,8 +5543,23 @@
       <c r="W47">
         <v>-0.25</v>
       </c>
+      <c r="X47">
+        <v>-2.35</v>
+      </c>
+      <c r="Y47">
+        <v>46.2</v>
+      </c>
+      <c r="Z47">
+        <v>-0.32</v>
+      </c>
       <c r="AC47" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4742,22 +5567,25 @@
       <c r="AG47">
         <v>-0.2581332325935364</v>
       </c>
-      <c r="AH47" t="s">
-        <v>147</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301357</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -4775,7 +5603,7 @@
         <v>148127.36</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4816,8 +5644,23 @@
       <c r="W48">
         <v>6.74</v>
       </c>
+      <c r="X48">
+        <v>14.64</v>
+      </c>
+      <c r="Y48">
+        <v>137.6</v>
+      </c>
+      <c r="Z48">
+        <v>19.88</v>
+      </c>
       <c r="AC48" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4825,22 +5668,25 @@
       <c r="AG48">
         <v>6.414001941680908</v>
       </c>
-      <c r="AH48" t="s">
-        <v>147</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301389</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>20</v>
@@ -4858,7 +5704,7 @@
         <v>65739.59</v>
       </c>
       <c r="J49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K49">
         <v>20</v>
@@ -4899,8 +5745,23 @@
       <c r="W49">
         <v>2.86</v>
       </c>
+      <c r="X49">
+        <v>0.29</v>
+      </c>
+      <c r="Y49">
+        <v>54.99</v>
+      </c>
+      <c r="Z49">
+        <v>6.32</v>
+      </c>
       <c r="AC49" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -4908,22 +5769,25 @@
       <c r="AG49">
         <v>13.67586994171143</v>
       </c>
-      <c r="AH49" t="s">
-        <v>148</v>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301489</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>12.02</v>
@@ -4941,7 +5805,7 @@
         <v>137665.29</v>
       </c>
       <c r="J50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -4982,8 +5846,23 @@
       <c r="W50">
         <v>-0.19</v>
       </c>
+      <c r="X50">
+        <v>4.96</v>
+      </c>
+      <c r="Y50">
+        <v>128.18</v>
+      </c>
+      <c r="Z50">
+        <v>4.96</v>
+      </c>
       <c r="AC50" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4991,22 +5870,25 @@
       <c r="AG50">
         <v>3.099682331085205</v>
       </c>
-      <c r="AH50" t="s">
-        <v>147</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301511</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-1.01</v>
@@ -5024,7 +5906,7 @@
         <v>164094.25</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K51">
         <v>30</v>
@@ -5065,8 +5947,23 @@
       <c r="W51">
         <v>-0.64</v>
       </c>
+      <c r="X51">
+        <v>-3.9</v>
+      </c>
+      <c r="Y51">
+        <v>36.39</v>
+      </c>
+      <c r="Z51">
+        <v>2.83</v>
+      </c>
       <c r="AC51" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5074,22 +5971,25 @@
       <c r="AG51">
         <v>3.096286773681641</v>
       </c>
-      <c r="AH51" t="s">
-        <v>147</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301529</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>14.27</v>
@@ -5107,7 +6007,7 @@
         <v>46449.28</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K52">
         <v>11</v>
@@ -5148,8 +6048,23 @@
       <c r="W52">
         <v>1.52</v>
       </c>
+      <c r="X52">
+        <v>-2.03</v>
+      </c>
+      <c r="Y52">
+        <v>72.22</v>
+      </c>
+      <c r="Z52">
+        <v>2.72</v>
+      </c>
       <c r="AC52" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5157,22 +6072,25 @@
       <c r="AG52">
         <v>1.890985369682312</v>
       </c>
-      <c r="AH52" t="s">
-        <v>147</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688011</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>13.54</v>
@@ -5190,7 +6108,7 @@
         <v>41835.24</v>
       </c>
       <c r="J53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5231,8 +6149,23 @@
       <c r="W53">
         <v>0.48</v>
       </c>
+      <c r="X53">
+        <v>-5.22</v>
+      </c>
+      <c r="Y53">
+        <v>51.4</v>
+      </c>
+      <c r="Z53">
+        <v>4.77</v>
+      </c>
       <c r="AC53" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5240,22 +6173,25 @@
       <c r="AG53">
         <v>5.492112636566162</v>
       </c>
-      <c r="AH53" t="s">
-        <v>147</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688020</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>4.2</v>
@@ -5273,7 +6209,7 @@
         <v>43401.48</v>
       </c>
       <c r="J54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5314,8 +6250,23 @@
       <c r="W54">
         <v>0.6</v>
       </c>
+      <c r="X54">
+        <v>-3.23</v>
+      </c>
+      <c r="Y54">
+        <v>57.8</v>
+      </c>
+      <c r="Z54">
+        <v>3.09</v>
+      </c>
       <c r="AC54" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5323,22 +6274,25 @@
       <c r="AG54">
         <v>2.560774564743042</v>
       </c>
-      <c r="AH54" t="s">
-        <v>147</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688039</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>2.25</v>
@@ -5356,7 +6310,7 @@
         <v>48254.94</v>
       </c>
       <c r="J55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5397,8 +6351,23 @@
       <c r="W55">
         <v>0.09</v>
       </c>
+      <c r="X55">
+        <v>4.47</v>
+      </c>
+      <c r="Y55">
+        <v>49.86</v>
+      </c>
+      <c r="Z55">
+        <v>6.74</v>
+      </c>
       <c r="AC55" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5406,22 +6375,25 @@
       <c r="AG55">
         <v>4.61482048034668</v>
       </c>
-      <c r="AH55" t="s">
-        <v>147</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688048</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>9.09</v>
@@ -5439,7 +6411,7 @@
         <v>111948.25</v>
       </c>
       <c r="J56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5480,8 +6452,23 @@
       <c r="W56">
         <v>0.08</v>
       </c>
+      <c r="X56">
+        <v>-0.36</v>
+      </c>
+      <c r="Y56">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="Z56">
+        <v>1.36</v>
+      </c>
       <c r="AC56" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5489,22 +6476,25 @@
       <c r="AG56">
         <v>-0.5617119669914246</v>
       </c>
-      <c r="AH56" t="s">
-        <v>147</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688084</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>9.279999999999999</v>
@@ -5522,7 +6512,7 @@
         <v>43005.72</v>
       </c>
       <c r="J57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5563,8 +6553,23 @@
       <c r="W57">
         <v>0.84</v>
       </c>
+      <c r="X57">
+        <v>-2.96</v>
+      </c>
+      <c r="Y57">
+        <v>111.5</v>
+      </c>
+      <c r="Z57">
+        <v>3.05</v>
+      </c>
       <c r="AC57" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5572,22 +6577,25 @@
       <c r="AG57">
         <v>2.954505681991577</v>
       </c>
-      <c r="AH57" t="s">
-        <v>147</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688110</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -5605,7 +6613,7 @@
         <v>566716.98</v>
       </c>
       <c r="J58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K58">
         <v>5</v>
@@ -5646,8 +6654,23 @@
       <c r="W58">
         <v>-0.37</v>
       </c>
+      <c r="X58">
+        <v>-11.63</v>
+      </c>
+      <c r="Y58">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="Z58">
+        <v>-1.42</v>
+      </c>
       <c r="AC58" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5655,22 +6678,25 @@
       <c r="AG58">
         <v>12.20917415618896</v>
       </c>
-      <c r="AH58" t="s">
-        <v>147</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688189</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-1.82</v>
@@ -5688,7 +6714,7 @@
         <v>71065.34</v>
       </c>
       <c r="J59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5729,8 +6755,23 @@
       <c r="W59">
         <v>0.28</v>
       </c>
+      <c r="X59">
+        <v>-7.77</v>
+      </c>
+      <c r="Y59">
+        <v>16.97</v>
+      </c>
+      <c r="Z59">
+        <v>-1.62</v>
+      </c>
       <c r="AC59" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5738,22 +6779,25 @@
       <c r="AG59">
         <v>8.443053245544434</v>
       </c>
-      <c r="AH59" t="s">
-        <v>147</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688210</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>7.35</v>
@@ -5771,7 +6815,7 @@
         <v>41855.71</v>
       </c>
       <c r="J60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5812,8 +6856,23 @@
       <c r="W60">
         <v>0.36</v>
       </c>
+      <c r="X60">
+        <v>-0.44</v>
+      </c>
+      <c r="Y60">
+        <v>42.3</v>
+      </c>
+      <c r="Z60">
+        <v>8.85</v>
+      </c>
       <c r="AC60" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5821,22 +6880,25 @@
       <c r="AG60">
         <v>6.65212345123291</v>
       </c>
-      <c r="AH60" t="s">
-        <v>147</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688222</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>3.82</v>
@@ -5854,7 +6916,7 @@
         <v>79115.74000000001</v>
       </c>
       <c r="J61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K61">
         <v>12</v>
@@ -5895,8 +6957,23 @@
       <c r="W61">
         <v>-0.01</v>
       </c>
+      <c r="X61">
+        <v>-4.12</v>
+      </c>
+      <c r="Y61">
+        <v>25.68</v>
+      </c>
+      <c r="Z61">
+        <v>3.8</v>
+      </c>
       <c r="AC61" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5904,22 +6981,25 @@
       <c r="AG61">
         <v>2.116773843765259</v>
       </c>
-      <c r="AH61" t="s">
-        <v>147</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688258</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>12.08</v>
@@ -5937,7 +7017,7 @@
         <v>83150.02</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -5978,8 +7058,23 @@
       <c r="W62">
         <v>0.93</v>
       </c>
+      <c r="X62">
+        <v>-6.27</v>
+      </c>
+      <c r="Y62">
+        <v>72.97</v>
+      </c>
+      <c r="Z62">
+        <v>-3.26</v>
+      </c>
       <c r="AC62" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5987,22 +7082,25 @@
       <c r="AG62">
         <v>0.2462548911571503</v>
       </c>
-      <c r="AH62" t="s">
-        <v>147</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688448</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>4.5</v>
@@ -6020,7 +7118,7 @@
         <v>38130.23</v>
       </c>
       <c r="J63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6061,8 +7159,23 @@
       <c r="W63">
         <v>-1.21</v>
       </c>
+      <c r="X63">
+        <v>-3.42</v>
+      </c>
+      <c r="Y63">
+        <v>41.7</v>
+      </c>
+      <c r="Z63">
+        <v>-0.24</v>
+      </c>
       <c r="AC63" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6070,22 +7183,25 @@
       <c r="AG63">
         <v>1.797586560249329</v>
       </c>
-      <c r="AH63" t="s">
-        <v>147</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688500</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.14</v>
@@ -6103,7 +7219,7 @@
         <v>40840.23</v>
       </c>
       <c r="J64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6144,8 +7260,23 @@
       <c r="W64">
         <v>-0.54</v>
       </c>
+      <c r="X64">
+        <v>-2.54</v>
+      </c>
+      <c r="Y64">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>2.21</v>
+      </c>
       <c r="AC64" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6153,22 +7284,25 @@
       <c r="AG64">
         <v>3.471095561981201</v>
       </c>
-      <c r="AH64" t="s">
-        <v>147</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688556</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>0.38</v>
@@ -6186,7 +7320,7 @@
         <v>32996.28</v>
       </c>
       <c r="J65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K65">
         <v>6</v>
@@ -6227,8 +7361,23 @@
       <c r="W65">
         <v>-0.01</v>
       </c>
+      <c r="X65">
+        <v>6.07</v>
+      </c>
+      <c r="Y65">
+        <v>11.5</v>
+      </c>
+      <c r="Z65">
+        <v>7.48</v>
+      </c>
       <c r="AC65" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6236,22 +7385,25 @@
       <c r="AG65">
         <v>1.066493153572083</v>
       </c>
-      <c r="AH65" t="s">
-        <v>147</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688603</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-1.94</v>
@@ -6269,7 +7421,7 @@
         <v>32975.43</v>
       </c>
       <c r="J66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6310,8 +7462,23 @@
       <c r="W66">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X66">
+        <v>1.92</v>
+      </c>
+      <c r="Y66">
+        <v>68.52</v>
+      </c>
+      <c r="Z66">
+        <v>4.31</v>
+      </c>
       <c r="AC66" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>1</v>
@@ -6319,22 +7486,25 @@
       <c r="AG66">
         <v>6.750085353851318</v>
       </c>
-      <c r="AH66" t="s">
-        <v>147</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688621</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>14.84</v>
@@ -6352,7 +7522,7 @@
         <v>81459.25999999999</v>
       </c>
       <c r="J67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6393,8 +7563,23 @@
       <c r="W67">
         <v>0.27</v>
       </c>
+      <c r="X67">
+        <v>-3.32</v>
+      </c>
+      <c r="Y67">
+        <v>66</v>
+      </c>
+      <c r="Z67">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC67" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6402,22 +7587,25 @@
       <c r="AG67">
         <v>10.01108741760254</v>
       </c>
-      <c r="AH67" t="s">
-        <v>148</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688630</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-2.54</v>
@@ -6435,7 +7623,7 @@
         <v>84645</v>
       </c>
       <c r="J68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K68">
         <v>8</v>
@@ -6476,8 +7664,23 @@
       <c r="W68">
         <v>-0.34</v>
       </c>
+      <c r="X68">
+        <v>5.09</v>
+      </c>
+      <c r="Y68">
+        <v>120.61</v>
+      </c>
+      <c r="Z68">
+        <v>5.19</v>
+      </c>
       <c r="AC68" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6485,22 +7688,25 @@
       <c r="AG68">
         <v>2.860645771026611</v>
       </c>
-      <c r="AH68" t="s">
-        <v>147</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688668</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>0.36</v>
@@ -6518,7 +7724,7 @@
         <v>86287.33</v>
       </c>
       <c r="J69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K69">
         <v>13</v>
@@ -6559,8 +7765,23 @@
       <c r="W69">
         <v>-0.03</v>
       </c>
+      <c r="X69">
+        <v>2.71</v>
+      </c>
+      <c r="Y69">
+        <v>94.98</v>
+      </c>
+      <c r="Z69">
+        <v>5.14</v>
+      </c>
       <c r="AC69" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6568,8 +7789,11 @@
       <c r="AG69">
         <v>2.750724077224731</v>
       </c>
-      <c r="AH69" t="s">
-        <v>147</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
